--- a/.sandbox/test.xlsx
+++ b/.sandbox/test.xlsx
@@ -11,27 +11,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Carta traducción</t>
   </si>
   <si>
-    <t>Monto</t>
-  </si>
-  <si>
-    <t>Num Banco</t>
-  </si>
-  <si>
-    <t>Nombre Banco</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>bebe</t>
-  </si>
-  <si>
-    <t>jajajaja</t>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Número de factura</t>
+  </si>
+  <si>
+    <t>Id de orden de compra</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Linea</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Precio unitario Euros</t>
+  </si>
+  <si>
+    <t>Precio total</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Peso neto</t>
+  </si>
+  <si>
+    <t>Peso bruto</t>
+  </si>
+  <si>
+    <t>País de origen</t>
   </si>
 </sst>
 </file>
@@ -411,13 +441,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:P2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="1" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +460,14 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -441,21 +477,49 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
